--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(トップ画面) .xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(トップ画面) .xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\java研修\演習2\要件定義書\1.ショッピングサイト\04_外部仕様書\画面設計\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B082BBD4-4091-46B1-9FF7-4517D324EB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView xWindow="30888" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
     <sheet name="〇〇画面" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇画面!$A$1:$M$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇画面!$A$1:$R$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -115,11 +114,86 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先</t>
+    <rPh sb="0" eb="3">
+      <t>センイサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移　「申請ページ」</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した年月申請登録画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移　「一覧ページへ」</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した年月の申請済みの一覧画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,6 +361,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,15 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,8 +420,8 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>929640</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:to>
@@ -364,7 +438,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1046"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1047"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -379,7 +453,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6103620" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -401,74 +475,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>604974</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>17961</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>453119</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>37011</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1A7A66-3DAC-465A-ADF5-8C43B901AB52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1720760" y="1868532"/>
-          <a:ext cx="4869180" cy="2794908"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -920,6 +926,729 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1379220" y="1470660"/>
+          <a:ext cx="5151120" cy="2933700"/>
+          <a:chOff x="1424940" y="1882140"/>
+          <a:chExt cx="5151120" cy="2933700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1424940" y="1882140"/>
+            <a:ext cx="5151120" cy="2933700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="グループ化 12"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2202180" y="2674620"/>
+            <a:ext cx="4267200" cy="304800"/>
+            <a:chOff x="2202180" y="2674620"/>
+            <a:chExt cx="4267200" cy="304800"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2202180" y="2674620"/>
+              <a:ext cx="944880" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:ln>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:prstClr val="black">
+                        <a:alpha val="40000"/>
+                      </a:prstClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>申請登録</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3496056" y="2697480"/>
+              <a:ext cx="525780" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>2023</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4544568" y="2697480"/>
+              <a:ext cx="358140" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>5</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4050792" y="2689860"/>
+              <a:ext cx="396240" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>年</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5061204" y="2682240"/>
+              <a:ext cx="396240" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>月</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5440680" y="2682240"/>
+              <a:ext cx="1028700" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>申請ページへ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="グループ化 13"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3467100" y="3398520"/>
+            <a:ext cx="3009900" cy="320040"/>
+            <a:chOff x="3550920" y="3360420"/>
+            <a:chExt cx="3009900" cy="320040"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3550920" y="3398520"/>
+              <a:ext cx="525780" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>2023</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4690110" y="3383280"/>
+              <a:ext cx="358140" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>5</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4185285" y="3375660"/>
+              <a:ext cx="396240" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>年</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5156835" y="3368040"/>
+              <a:ext cx="396240" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>月</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5532120" y="3360420"/>
+              <a:ext cx="1028700" cy="281940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>一覧</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ページへ</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="2971800"/>
+          <a:ext cx="944880" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>申請一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1219,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -1270,285 +1999,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1556,6 +2255,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1564,10 +2293,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="N1:P8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:P8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1576,7 +2307,31 @@
     <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="14:16" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="14:16" x14ac:dyDescent="0.45">
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(トップ画面) .xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/画面レイアウト/1_画面レイアウト(トップ画面) .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\04_外部仕様書\4.画面設計\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30888" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -361,6 +361,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,15 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,10 +420,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>929640</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -438,7 +438,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1047"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1052"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -453,7 +453,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6103620" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -946,8 +946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1379220" y="1470660"/>
-          <a:ext cx="5151120" cy="2933700"/>
+          <a:off x="1379220" y="1518285"/>
+          <a:ext cx="5137785" cy="3057525"/>
           <a:chOff x="1424940" y="1882140"/>
           <a:chExt cx="5151120" cy="2933700"/>
         </a:xfrm>
@@ -1002,9 +1002,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="2202180" y="2674620"/>
-            <a:ext cx="4267200" cy="304800"/>
+            <a:ext cx="2118512" cy="298700"/>
             <a:chOff x="2202180" y="2674620"/>
-            <a:chExt cx="4267200" cy="304800"/>
+            <a:chExt cx="2118512" cy="298700"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -1070,198 +1070,12 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3496056" y="2697480"/>
-              <a:ext cx="525780" cy="281940"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>2023</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4544568" y="2697480"/>
-              <a:ext cx="358140" cy="281940"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>5</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4050792" y="2689860"/>
-              <a:ext cx="396240" cy="281940"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>年</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5061204" y="2682240"/>
-              <a:ext cx="396240" cy="281940"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>月</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5440680" y="2682240"/>
+              <a:off x="3291992" y="2691380"/>
               <a:ext cx="1028700" cy="281940"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1953,16 +1767,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1979,7 +1793,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -1990,264 +1804,294 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -2255,36 +2099,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,15 +2114,15 @@
       <selection activeCell="N6" sqref="N6:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="14:16" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="14:16" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="14:16" x14ac:dyDescent="0.4">
       <c r="N6" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="14:16" x14ac:dyDescent="0.4">
       <c r="N7" t="s">
         <v>11</v>
       </c>
@@ -2324,7 +2138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="14:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="14:16" x14ac:dyDescent="0.4">
       <c r="N8" t="s">
         <v>13</v>
       </c>
